--- a/SAO_VALENTIM.xlsx
+++ b/SAO_VALENTIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB80905-65A7-44A4-9948-54B75DBB96F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D830D67-C300-4721-B226-B5584AAB391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{7DC4676D-A553-4E60-AF35-6567DD8D44B7}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9BECB262-9683-43C1-A715-038AFE20C2FF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,10 +1231,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5007E7F5-2797-4497-B4D1-914F879AA85D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9464EF78-EF05-4772-91EB-569AFC8CD056}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1272,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827EA056-3608-4343-8576-5536D88447B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670720E8-AE3D-4A16-B12C-1DCD15B90F95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D22234-3134-4C53-B887-CB60A448FAFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CAC2E2-ACD6-469D-8617-E981D09C57F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846784C9-30ED-51EC-0D27-58CC4AFDAF81}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEB1EDB-780B-5C82-2095-4EFD0223360D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A232D8-79E6-11C7-7E55-077FD7506877}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32354D6-3137-F3CC-8314-C526CCAB7F13}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,7 +1422,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78576FD0-E00D-D2E0-243F-67CA003262AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D243BAF-56E6-D805-DFBD-1110AB92B094}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08B7BB3-CA22-F389-E4D9-DB638AD3AB73}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4514332A-4BB5-F289-DA75-287BCD82A804}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1484,7 +1484,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6EB4EB-FABF-81F7-C8DD-FE38A1F7CC69}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADDC96F-6CEC-C517-A760-943DAC7942F4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA70D99-D3DF-4122-9168-E2DCED8E1365}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFBDCC4-1C98-41A7-BB55-4CEBA642E666}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1565,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1124277-EE2C-449A-A6FD-A7C930C67C52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B294FAC3-BAD7-44AA-9598-120C90F2AF11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1608,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4031503-3653-4F7B-93C1-5080196BB204}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36ECCFA3-14C7-4B4C-9423-AC8607A03811}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E4A76A-96D9-4D63-AB1F-106E1AB050BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D82DB8-123F-4BBA-B014-F5A4D8475019}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_VALENTIM.xlsx
+++ b/SAO_VALENTIM.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D830D67-C300-4721-B226-B5584AAB391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D563E6-8417-4822-A980-3CA69FC715AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="298">
   <si>
     <t>COMARCA</t>
   </si>
@@ -920,15 +919,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO VALENTIM</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,27 +1171,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9BECB262-9683-43C1-A715-038AFE20C2FF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{81E931D7-3FE9-471F-9838-476EBA230333}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,10 +1206,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9464EF78-EF05-4772-91EB-569AFC8CD056}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C86F83-57C4-42B6-AD8E-5CFF09B93A2D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1247,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670720E8-AE3D-4A16-B12C-1DCD15B90F95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3531BE7-AE1E-4F13-845B-A3B186FB1E1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1310,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CAC2E2-ACD6-469D-8617-E981D09C57F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D671FB-9E4E-4C45-B170-923D8428A113}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1329,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEB1EDB-780B-5C82-2095-4EFD0223360D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54313FC9-143E-A6C1-7EBA-299BF23E6F6A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1378,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32354D6-3137-F3CC-8314-C526CCAB7F13}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053FE966-FE75-425A-15F5-F77DFF0F732E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,7 +1397,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D243BAF-56E6-D805-DFBD-1110AB92B094}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AB63A1-9F66-76F8-22BF-E56998C49DD6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,7 +1428,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4514332A-4BB5-F289-DA75-287BCD82A804}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7966D679-75EB-7C8A-51A7-536EB4E1CB6D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1484,7 +1459,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADDC96F-6CEC-C517-A760-943DAC7942F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122C7E86-7512-2822-AC1A-CD355F5019D4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1527,7 +1502,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFBDCC4-1C98-41A7-BB55-4CEBA642E666}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6E54D8-8380-40CA-8CFE-9B9D8A3D2F02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1540,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B294FAC3-BAD7-44AA-9598-120C90F2AF11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE018D7-F63E-4B48-81F6-7A3EE51B813D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1583,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36ECCFA3-14C7-4B4C-9423-AC8607A03811}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDA6811-10DB-4D4E-88CE-A7B468373C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D82DB8-123F-4BBA-B014-F5A4D8475019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16FB65C-1F2D-4D28-8001-3B5DFD33120C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1933,98 +1908,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5459,52 +5434,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="32">
-        <v>7</v>
-      </c>
-      <c r="C2" s="30">
-        <v>4.6290173257505622E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_VALENTIM.xlsx
+++ b/SAO_VALENTIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D563E6-8417-4822-A980-3CA69FC715AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63938B02-7997-433D-84AF-22ED91EAAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,7 +1176,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{81E931D7-3FE9-471F-9838-476EBA230333}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{82661D31-1C46-4CB5-8964-3C0D1087ACD5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1206,10 +1206,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C86F83-57C4-42B6-AD8E-5CFF09B93A2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779E7ED8-1880-439C-98A5-1BE6935964F1}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1247,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3531BE7-AE1E-4F13-845B-A3B186FB1E1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8D97E2-6230-4388-B8F6-3994DACFBBA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1310,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D671FB-9E4E-4C45-B170-923D8428A113}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF9DA8A-86C1-43AC-9187-F08C1DEA839A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1329,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54313FC9-143E-A6C1-7EBA-299BF23E6F6A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1798CF7-D1E0-4CD6-F12E-2768CC204121}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053FE966-FE75-425A-15F5-F77DFF0F732E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F2256A-9BB2-FEF1-E8DE-E6CFEDDC5FBD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AB63A1-9F66-76F8-22BF-E56998C49DD6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB178CC4-3B4D-90F5-B843-12E8F730C531}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7966D679-75EB-7C8A-51A7-536EB4E1CB6D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A53224-3815-926A-37AD-E5C8FA0CA7BB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122C7E86-7512-2822-AC1A-CD355F5019D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAF72EC-159B-2737-70B4-BE86BA1E7CBA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6E54D8-8380-40CA-8CFE-9B9D8A3D2F02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E57D80-367B-4D20-A5BF-8F1DA8E5E436}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1540,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE018D7-F63E-4B48-81F6-7A3EE51B813D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277DAF96-9FF3-4C53-BFB9-A3472E3CCE45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,50 +1565,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDA6811-10DB-4D4E-88CE-A7B468373C62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1896,7 +1852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16FB65C-1F2D-4D28-8001-3B5DFD33120C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAA98DB-8DE8-475A-80FB-8E9D689A1742}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
